--- a/Time plan - proposal.xlsx
+++ b/Time plan - proposal.xlsx
@@ -615,7 +615,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="R15" sqref="A6:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
